--- a/biology/Botanique/Chordospartium/Chordospartium.xlsx
+++ b/biology/Botanique/Chordospartium/Chordospartium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chordospartium est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire de l'île du Sud (Nouvelle-Zélande), qui comprend deux espèces acceptées.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (20 novembre 2018)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (20 novembre 2018) :
 Chordospartium muritai A.W.Purdie
 Chordospartium stevensonii Cheeseman
 </t>
